--- a/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
+++ b/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.07</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007234</t>
+          <t>001182</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+          <t>易方达安心回馈混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>27.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160526</t>
+          <t>003882</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+          <t>易方达瑞弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>35.72</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003840</t>
+          <t>160519</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合C</t>
+          <t>博时睿利事件驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35.72</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003882</t>
+          <t>003883</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合A</t>
+          <t>易方达瑞弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>35.53</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.96</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003883</t>
+          <t>003840</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合C</t>
+          <t>易方达瑞通灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.53</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,26 +768,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160519</t>
+          <t>007234</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>83.06</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +825,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +855,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003839</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合A</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.36</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5891</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +893,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003840</t>
+          <t>003882</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合C</t>
+          <t>易方达瑞弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.36</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +931,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003882</t>
+          <t>003839</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合A</t>
+          <t>易方达瑞通灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.17</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +969,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003883</t>
+          <t>000932</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合C</t>
+          <t>前海开源睿远稳健增利混合 - A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.17</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -874,25 +1007,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001972</t>
+          <t>160519</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+          <t>博时睿利事件驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>66.30</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -902,25 +1045,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000932</t>
+          <t>000933</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - A</t>
+          <t>前海开源睿远稳健增利混合 - C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>21.69</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.71</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,26 +1083,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000933</t>
+          <t>003883</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - C</t>
+          <t>易方达瑞弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -958,25 +1121,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160519</t>
+          <t>003840</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
+          <t>易方达瑞通灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>80.04</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -986,26 +1159,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160526</t>
+          <t>001972</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1022,17 +1205,21 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>91.20</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
+++ b/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1205,7 +1206,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>91.20</t>
@@ -1221,6 +1221,290 @@
       </c>
       <c r="H11" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
+++ b/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1510,4 +1511,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
+++ b/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1719,4 +1720,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
+++ b/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1728,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1739,17 +1740,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1759,14 +1780,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1775,14 +1818,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1791,14 +1856,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.2</v>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7267</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1807,13 +1894,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
+++ b/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2355,7 +2356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2366,17 +2367,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2386,14 +2407,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.24</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -2402,14 +2497,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="4">
@@ -2418,14 +2513,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -2434,14 +2529,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="6">
@@ -2450,13 +2545,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
+++ b/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2450,7 +2451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2461,17 +2462,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2481,14 +2502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2497,14 +2540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.24</v>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2513,14 +2578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2529,14 +2616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.28</v>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2545,14 +2654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.2</v>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2561,13 +2692,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
+++ b/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>3.33</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5.24</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -600,6 +617,1960 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7111</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3820</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3519</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳核心科技混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013929</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013930</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015767</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,7 +3442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +4068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +4276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +4560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3018,7 +4989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
+++ b/数据整理/stocks/A股/上证主板/600933-爱柯迪.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>8.970000000000001</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>3.33</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5.24</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -616,7 +633,1896 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6812</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6445</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5917</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5831</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5110</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3399</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013929</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013930</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001530</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012007</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2570,7 +4476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3348,7 +5254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3442,7 +5348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4068,7 +5974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4276,7 +6182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4560,7 +6466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4987,357 +6893,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5278</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3629</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003882</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2211</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003839</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>35.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1614</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160519</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003840</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>35.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>